--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2627,28 +2627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1087.191127205801</v>
+        <v>1172.389649792405</v>
       </c>
       <c r="AB2" t="n">
-        <v>1487.542863730417</v>
+        <v>1604.11524102695</v>
       </c>
       <c r="AC2" t="n">
-        <v>1345.573860595507</v>
+        <v>1451.020733813218</v>
       </c>
       <c r="AD2" t="n">
-        <v>1087191.127205801</v>
+        <v>1172389.649792405</v>
       </c>
       <c r="AE2" t="n">
-        <v>1487542.863730417</v>
+        <v>1604115.24102695</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.272392305947844e-06</v>
+        <v>2.354258896668927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.943359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1345573.860595507</v>
+        <v>1451020.733813218</v>
       </c>
     </row>
     <row r="3">
@@ -2733,28 +2733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>526.2431505759624</v>
+        <v>575.025553030675</v>
       </c>
       <c r="AB3" t="n">
-        <v>720.0290948273181</v>
+        <v>786.7753299935628</v>
       </c>
       <c r="AC3" t="n">
-        <v>651.3105285841797</v>
+        <v>711.6865967450874</v>
       </c>
       <c r="AD3" t="n">
-        <v>526243.1505759624</v>
+        <v>575025.553030675</v>
       </c>
       <c r="AE3" t="n">
-        <v>720029.0948273181</v>
+        <v>786775.3299935628</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.993551549500907e-06</v>
+        <v>3.688592307137873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.6220703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>651310.5285841797</v>
+        <v>711686.5967450874</v>
       </c>
     </row>
     <row r="4">
@@ -2839,28 +2839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>422.7864978413514</v>
+        <v>471.4835594414925</v>
       </c>
       <c r="AB4" t="n">
-        <v>578.4751383704289</v>
+        <v>645.1046064144758</v>
       </c>
       <c r="AC4" t="n">
-        <v>523.2662830593104</v>
+        <v>583.5367281882791</v>
       </c>
       <c r="AD4" t="n">
-        <v>422786.4978413514</v>
+        <v>471483.5594414925</v>
       </c>
       <c r="AE4" t="n">
-        <v>578475.1383704289</v>
+        <v>645104.6064144758</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.270288473101539e-06</v>
+        <v>4.200628069518758e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>523266.2830593104</v>
+        <v>583536.7281882791</v>
       </c>
     </row>
     <row r="5">
@@ -2945,28 +2945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.2392422198829</v>
+        <v>408.7407927148968</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.3141532416024</v>
+        <v>559.2571849636363</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.7059252831266</v>
+        <v>505.8824641530952</v>
       </c>
       <c r="AD5" t="n">
-        <v>372239.2422198829</v>
+        <v>408740.7927148968</v>
       </c>
       <c r="AE5" t="n">
-        <v>509314.1532416024</v>
+        <v>559257.1849636363</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.449271159519356e-06</v>
+        <v>4.531792899641617e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.204427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>460705.9252831266</v>
+        <v>505882.4641530951</v>
       </c>
     </row>
     <row r="6">
@@ -3051,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>354.9595427389553</v>
+        <v>391.4610932339693</v>
       </c>
       <c r="AB6" t="n">
-        <v>485.6713060852585</v>
+        <v>535.6143378072926</v>
       </c>
       <c r="AC6" t="n">
-        <v>439.3195182764399</v>
+        <v>484.4960571464084</v>
       </c>
       <c r="AD6" t="n">
-        <v>354959.5427389554</v>
+        <v>391461.0932339694</v>
       </c>
       <c r="AE6" t="n">
-        <v>485671.3060852585</v>
+        <v>535614.3378072926</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.501649504370893e-06</v>
+        <v>4.628706551023424e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.07421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>439319.5182764399</v>
+        <v>484496.0571464084</v>
       </c>
     </row>
     <row r="7">
@@ -3157,28 +3157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>318.3882090694086</v>
+        <v>354.9750109104431</v>
       </c>
       <c r="AB7" t="n">
-        <v>435.6327939452122</v>
+        <v>485.6924703198957</v>
       </c>
       <c r="AC7" t="n">
-        <v>394.0566115055467</v>
+        <v>439.3386626262275</v>
       </c>
       <c r="AD7" t="n">
-        <v>318388.2090694086</v>
+        <v>354975.0109104431</v>
       </c>
       <c r="AE7" t="n">
-        <v>435632.7939452122</v>
+        <v>485692.4703198957</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.57512857281681e-06</v>
+        <v>4.764662065528741e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.901692708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>394056.6115055467</v>
+        <v>439338.6626262275</v>
       </c>
     </row>
     <row r="8">
@@ -3263,28 +3263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>314.1332752537194</v>
+        <v>350.7200770947538</v>
       </c>
       <c r="AB8" t="n">
-        <v>429.8110057841544</v>
+        <v>479.8706821588378</v>
       </c>
       <c r="AC8" t="n">
-        <v>388.7904466356493</v>
+        <v>434.07249775633</v>
       </c>
       <c r="AD8" t="n">
-        <v>314133.2752537194</v>
+        <v>350720.0770947539</v>
       </c>
       <c r="AE8" t="n">
-        <v>429811.0057841544</v>
+        <v>479870.6821588379</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.587359523218862e-06</v>
+        <v>4.787292526011837e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.8740234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>388790.4466356493</v>
+        <v>434072.49775633</v>
       </c>
     </row>
   </sheetData>
@@ -3560,28 +3560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>764.1365286002723</v>
+        <v>822.8698379178379</v>
       </c>
       <c r="AB2" t="n">
-        <v>1045.525309755309</v>
+        <v>1125.886814694336</v>
       </c>
       <c r="AC2" t="n">
-        <v>945.7418415962502</v>
+        <v>1018.433757291977</v>
       </c>
       <c r="AD2" t="n">
-        <v>764136.5286002723</v>
+        <v>822869.8379178379</v>
       </c>
       <c r="AE2" t="n">
-        <v>1045525.309755309</v>
+        <v>1125886.814694336</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.564980616583925e-06</v>
+        <v>2.983094582421322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.04557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>945741.8415962502</v>
+        <v>1018433.757291977</v>
       </c>
     </row>
     <row r="3">
@@ -3666,28 +3666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>425.7509706784092</v>
+        <v>461.042196585112</v>
       </c>
       <c r="AB3" t="n">
-        <v>582.5312608894028</v>
+        <v>630.8182731139572</v>
       </c>
       <c r="AC3" t="n">
-        <v>526.935294937877</v>
+        <v>570.6138624869674</v>
       </c>
       <c r="AD3" t="n">
-        <v>425750.9706784092</v>
+        <v>461042.196585112</v>
       </c>
       <c r="AE3" t="n">
-        <v>582531.2608894028</v>
+        <v>630818.2731139571</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.239343059649342e-06</v>
+        <v>4.268533474877389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.019856770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>526935.294937877</v>
+        <v>570613.8624869674</v>
       </c>
     </row>
     <row r="4">
@@ -3772,28 +3772,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.0098654959065</v>
+        <v>383.2157505480375</v>
       </c>
       <c r="AB4" t="n">
-        <v>476.1624510831976</v>
+        <v>524.3326961855544</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.7181750500139</v>
+        <v>474.2911195671654</v>
       </c>
       <c r="AD4" t="n">
-        <v>348009.8654959064</v>
+        <v>383215.7505480375</v>
       </c>
       <c r="AE4" t="n">
-        <v>476162.4510831976</v>
+        <v>524332.6961855544</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.490466283936092e-06</v>
+        <v>4.747213096817489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.311848958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>430718.1750500139</v>
+        <v>474291.1195671654</v>
       </c>
     </row>
     <row r="5">
@@ -3878,28 +3878,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.1826875743808</v>
+        <v>350.3885726265119</v>
       </c>
       <c r="AB5" t="n">
-        <v>431.2468580180874</v>
+        <v>479.4171031204442</v>
       </c>
       <c r="AC5" t="n">
-        <v>390.089263147607</v>
+        <v>433.6622076647586</v>
       </c>
       <c r="AD5" t="n">
-        <v>315182.6875743808</v>
+        <v>350388.5726265119</v>
       </c>
       <c r="AE5" t="n">
-        <v>431246.8580180875</v>
+        <v>479417.1031204442</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.611874704293186e-06</v>
+        <v>4.978636283270838e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.018880208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>390089.263147607</v>
+        <v>433662.2076647585</v>
       </c>
     </row>
     <row r="6">
@@ -3984,28 +3984,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>288.4113952088126</v>
+        <v>323.7025316069642</v>
       </c>
       <c r="AB6" t="n">
-        <v>394.6171947374534</v>
+        <v>442.9040844924594</v>
       </c>
       <c r="AC6" t="n">
-        <v>356.9554835204213</v>
+        <v>400.6339402882851</v>
       </c>
       <c r="AD6" t="n">
-        <v>288411.3952088126</v>
+        <v>323702.5316069642</v>
       </c>
       <c r="AE6" t="n">
-        <v>394617.1947374534</v>
+        <v>442904.0844924594</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.663065207705485e-06</v>
+        <v>5.076213283127858e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.9033203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>356955.4835204213</v>
+        <v>400633.9402882851</v>
       </c>
     </row>
   </sheetData>
@@ -4281,28 +4281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.2469215194818</v>
+        <v>334.0153506296738</v>
       </c>
       <c r="AB2" t="n">
-        <v>399.8651310471896</v>
+        <v>457.0145384487957</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.7025641542812</v>
+        <v>413.397712323175</v>
       </c>
       <c r="AD2" t="n">
-        <v>292246.9215194818</v>
+        <v>334015.3506296738</v>
       </c>
       <c r="AE2" t="n">
-        <v>399865.1310471896</v>
+        <v>457014.5384487957</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.522706847566557e-06</v>
+        <v>5.372705385532458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>361702.5641542812</v>
+        <v>413397.712323175</v>
       </c>
     </row>
     <row r="3">
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.9750259933673</v>
+        <v>275.2801021209224</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.8173939824718</v>
+        <v>376.6503802228368</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.958330416539</v>
+        <v>340.7033965664973</v>
       </c>
       <c r="AD3" t="n">
-        <v>243975.0259933673</v>
+        <v>275280.1021209224</v>
       </c>
       <c r="AE3" t="n">
-        <v>333817.3939824718</v>
+        <v>376650.3802228367</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.796133910935479e-06</v>
+        <v>5.955033473843469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.272786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>301958.330416539</v>
+        <v>340703.3965664973</v>
       </c>
     </row>
   </sheetData>
@@ -4684,28 +4684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.1421160752832</v>
+        <v>465.0293002600846</v>
       </c>
       <c r="AB2" t="n">
-        <v>576.2252226930909</v>
+        <v>636.2736042606547</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.231096176441</v>
+        <v>575.5485444856293</v>
       </c>
       <c r="AD2" t="n">
-        <v>421142.1160752833</v>
+        <v>465029.3002600846</v>
       </c>
       <c r="AE2" t="n">
-        <v>576225.2226930909</v>
+        <v>636273.6042606547</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.131090361981952e-06</v>
+        <v>4.326850220236625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.874348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>521231.096176441</v>
+        <v>575548.5444856293</v>
       </c>
     </row>
     <row r="3">
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.6846911491461</v>
+        <v>310.5148279417266</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.9404450142335</v>
+        <v>424.8600865372569</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.679462191838</v>
+        <v>384.3120361730169</v>
       </c>
       <c r="AD3" t="n">
-        <v>277684.6911491461</v>
+        <v>310514.8279417266</v>
       </c>
       <c r="AE3" t="n">
-        <v>379940.4450142335</v>
+        <v>424860.0865372569</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.697552718589859e-06</v>
+        <v>5.476964648122832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.220703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>343679.462191838</v>
+        <v>384312.0361730169</v>
       </c>
     </row>
     <row r="4">
@@ -4896,28 +4896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>263.6463352959102</v>
+        <v>296.4764720884907</v>
       </c>
       <c r="AB4" t="n">
-        <v>360.7325472072858</v>
+        <v>405.6521887303093</v>
       </c>
       <c r="AC4" t="n">
-        <v>326.3047391931316</v>
+        <v>366.9373131743105</v>
       </c>
       <c r="AD4" t="n">
-        <v>263646.3352959102</v>
+        <v>296476.4720884907</v>
       </c>
       <c r="AE4" t="n">
-        <v>360732.5472072858</v>
+        <v>405652.1887303093</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.76601485997822e-06</v>
+        <v>5.615966464671147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>326304.7391931316</v>
+        <v>366937.3131743105</v>
       </c>
     </row>
   </sheetData>
@@ -5193,28 +5193,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.0652581459535</v>
+        <v>260.2900638915085</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.785435958002</v>
+        <v>356.1403486035392</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.7427557543977</v>
+        <v>322.1508135789352</v>
       </c>
       <c r="AD2" t="n">
-        <v>230065.2581459535</v>
+        <v>260290.0638915084</v>
       </c>
       <c r="AE2" t="n">
-        <v>314785.435958002</v>
+        <v>356140.3486035392</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.777086981144606e-06</v>
+        <v>6.184030275157388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.560872395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>284742.7557543977</v>
+        <v>322150.8135789352</v>
       </c>
     </row>
     <row r="3">
@@ -5299,28 +5299,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.9415101571382</v>
+        <v>262.1663159026932</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.3526067341005</v>
+        <v>358.7075193796389</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.064919354673</v>
+        <v>324.4729771792109</v>
       </c>
       <c r="AD3" t="n">
-        <v>231941.5101571382</v>
+        <v>262166.3159026932</v>
       </c>
       <c r="AE3" t="n">
-        <v>317352.6067341005</v>
+        <v>358707.519379639</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.775967639354543e-06</v>
+        <v>6.181537719625282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>287064.919354673</v>
+        <v>324472.9771792109</v>
       </c>
     </row>
   </sheetData>
@@ -5596,28 +5596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>830.9757952425147</v>
+        <v>890.2766955344534</v>
       </c>
       <c r="AB2" t="n">
-        <v>1136.977743115558</v>
+        <v>1218.115851066069</v>
       </c>
       <c r="AC2" t="n">
-        <v>1028.466183070893</v>
+        <v>1101.860583876657</v>
       </c>
       <c r="AD2" t="n">
-        <v>830975.7952425147</v>
+        <v>890276.6955344535</v>
       </c>
       <c r="AE2" t="n">
-        <v>1136977.743115558</v>
+        <v>1218115.851066069</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.487557038616391e-06</v>
+        <v>2.812618803620038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.4736328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1028466.183070893</v>
+        <v>1101860.583876657</v>
       </c>
     </row>
     <row r="3">
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.6759066171487</v>
+        <v>485.3076871084752</v>
       </c>
       <c r="AB3" t="n">
-        <v>615.2664137344666</v>
+        <v>664.0193877659115</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.5462507394835</v>
+        <v>600.646309354596</v>
       </c>
       <c r="AD3" t="n">
-        <v>449675.9066171487</v>
+        <v>485307.6871084752</v>
       </c>
       <c r="AE3" t="n">
-        <v>615266.4137344667</v>
+        <v>664019.3877659114</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.174143914492806e-06</v>
+        <v>4.110792323880415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.166341145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>556546.2507394835</v>
+        <v>600646.3093545961</v>
       </c>
     </row>
     <row r="4">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.5963606013776</v>
+        <v>402.1428002381325</v>
       </c>
       <c r="AB4" t="n">
-        <v>501.5933136647962</v>
+        <v>550.2295205740431</v>
       </c>
       <c r="AC4" t="n">
-        <v>453.7219517992644</v>
+        <v>497.716387382438</v>
       </c>
       <c r="AD4" t="n">
-        <v>366596.3606013776</v>
+        <v>402142.8002381325</v>
       </c>
       <c r="AE4" t="n">
-        <v>501593.3136647962</v>
+        <v>550229.5205740432</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.431817394188793e-06</v>
+        <v>4.597991977657208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>453721.9517992644</v>
+        <v>497716.387382438</v>
       </c>
     </row>
     <row r="5">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.3628439481615</v>
+        <v>368.9092835849165</v>
       </c>
       <c r="AB5" t="n">
-        <v>456.1217500205875</v>
+        <v>504.7579569298345</v>
       </c>
       <c r="AC5" t="n">
-        <v>412.5901303695186</v>
+        <v>456.5845659526922</v>
       </c>
       <c r="AD5" t="n">
-        <v>333362.8439481615</v>
+        <v>368909.2835849164</v>
       </c>
       <c r="AE5" t="n">
-        <v>456121.7500205875</v>
+        <v>504757.9569298345</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.552422366111877e-06</v>
+        <v>4.826027476824652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.103515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>412590.1303695187</v>
+        <v>456584.5659526922</v>
       </c>
     </row>
     <row r="6">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>294.5704621161016</v>
+        <v>330.2021530988771</v>
       </c>
       <c r="AB6" t="n">
-        <v>403.0443017988613</v>
+        <v>451.7971533607576</v>
       </c>
       <c r="AC6" t="n">
-        <v>364.5783193114075</v>
+        <v>408.6782671452934</v>
       </c>
       <c r="AD6" t="n">
-        <v>294570.4621161016</v>
+        <v>330202.1530988772</v>
       </c>
       <c r="AE6" t="n">
-        <v>403044.3017988614</v>
+        <v>451797.1533607576</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.644024713834411e-06</v>
+        <v>4.999225867858974e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.891927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>364578.3193114075</v>
+        <v>408678.2671452934</v>
       </c>
     </row>
     <row r="7">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>295.7874162382574</v>
+        <v>331.4191072210328</v>
       </c>
       <c r="AB7" t="n">
-        <v>404.7093921170215</v>
+        <v>453.4622436789178</v>
       </c>
       <c r="AC7" t="n">
-        <v>366.0844957465715</v>
+        <v>410.1844435804574</v>
       </c>
       <c r="AD7" t="n">
-        <v>295787.4162382574</v>
+        <v>331419.1072210328</v>
       </c>
       <c r="AE7" t="n">
-        <v>404709.3921170215</v>
+        <v>453462.2436789178</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.638760211091736e-06</v>
+        <v>4.989271937339759e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.9033203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>366084.4957465715</v>
+        <v>410184.4435804574</v>
       </c>
     </row>
   </sheetData>
@@ -6423,28 +6423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.0338186204624</v>
+        <v>263.1468337050886</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.532954310897</v>
+        <v>360.0491070942689</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.2778793732591</v>
+        <v>325.6865256452867</v>
       </c>
       <c r="AD2" t="n">
-        <v>224033.8186204624</v>
+        <v>263146.8337050886</v>
       </c>
       <c r="AE2" t="n">
-        <v>306532.954310897</v>
+        <v>360049.1070942689</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.732852807461764e-06</v>
+        <v>6.26524747406902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>277277.879373259</v>
+        <v>325686.5256452867</v>
       </c>
     </row>
   </sheetData>
@@ -6720,28 +6720,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>569.8471279370792</v>
+        <v>626.7382404157926</v>
       </c>
       <c r="AB2" t="n">
-        <v>779.6899803245134</v>
+        <v>857.5309102766345</v>
       </c>
       <c r="AC2" t="n">
-        <v>705.2774629041012</v>
+        <v>775.6893637520234</v>
       </c>
       <c r="AD2" t="n">
-        <v>569847.1279370792</v>
+        <v>626738.2404157926</v>
       </c>
       <c r="AE2" t="n">
-        <v>779689.9803245134</v>
+        <v>857530.9102766345</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.823582330003792e-06</v>
+        <v>3.574196165019657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.8818359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>705277.4629041012</v>
+        <v>775689.3637520234</v>
       </c>
     </row>
     <row r="3">
@@ -6826,28 +6826,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>346.4711348559954</v>
+        <v>391.9669566680516</v>
       </c>
       <c r="AB3" t="n">
-        <v>474.0570919376665</v>
+        <v>536.306482474924</v>
       </c>
       <c r="AC3" t="n">
-        <v>428.8137484264421</v>
+        <v>485.122144498392</v>
       </c>
       <c r="AD3" t="n">
-        <v>346471.1348559954</v>
+        <v>391966.9566680517</v>
       </c>
       <c r="AE3" t="n">
-        <v>474057.0919376665</v>
+        <v>536306.4824749239</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.445839372814909e-06</v>
+        <v>4.793811369378071e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.622721354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>428813.7484264422</v>
+        <v>485122.144498392</v>
       </c>
     </row>
     <row r="4">
@@ -6932,28 +6932,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.0927671183841</v>
+        <v>325.1933877723345</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.2859660779091</v>
+        <v>444.943939669851</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.2741124732968</v>
+        <v>402.4791145505012</v>
       </c>
       <c r="AD4" t="n">
-        <v>291092.7671183841</v>
+        <v>325193.3877723345</v>
       </c>
       <c r="AE4" t="n">
-        <v>398285.966077909</v>
+        <v>444943.939669851</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.68079041680612e-06</v>
+        <v>5.254312168592881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>360274.1124732968</v>
+        <v>402479.1145505012</v>
       </c>
     </row>
     <row r="5">
@@ -7038,28 +7038,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>269.9658020409234</v>
+        <v>315.3762829984082</v>
       </c>
       <c r="AB5" t="n">
-        <v>369.3791204030093</v>
+        <v>431.5117438180691</v>
       </c>
       <c r="AC5" t="n">
-        <v>334.1260955785969</v>
+        <v>390.328868618608</v>
       </c>
       <c r="AD5" t="n">
-        <v>269965.8020409234</v>
+        <v>315376.2829984082</v>
       </c>
       <c r="AE5" t="n">
-        <v>369379.1204030094</v>
+        <v>431511.7438180691</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.719202573934713e-06</v>
+        <v>5.32959946571144e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.95703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>334126.0955785969</v>
+        <v>390328.868618608</v>
       </c>
     </row>
   </sheetData>
@@ -7335,28 +7335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>690.8455227298388</v>
+        <v>749.0749090598617</v>
       </c>
       <c r="AB2" t="n">
-        <v>945.2453221524031</v>
+        <v>1024.917337428361</v>
       </c>
       <c r="AC2" t="n">
-        <v>855.0324352663189</v>
+        <v>927.1006652247156</v>
       </c>
       <c r="AD2" t="n">
-        <v>690845.5227298387</v>
+        <v>749074.9090598618</v>
       </c>
       <c r="AE2" t="n">
-        <v>945245.3221524031</v>
+        <v>1024917.337428361</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.646732680639286e-06</v>
+        <v>3.166177999040227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.637044270833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>855032.4352663188</v>
+        <v>927100.6652247156</v>
       </c>
     </row>
     <row r="3">
@@ -7441,28 +7441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.6864825005584</v>
+        <v>438.184650710005</v>
       </c>
       <c r="AB3" t="n">
-        <v>535.9227253453125</v>
+        <v>599.5435704438814</v>
       </c>
       <c r="AC3" t="n">
-        <v>484.7750126106242</v>
+        <v>542.3239735454027</v>
       </c>
       <c r="AD3" t="n">
-        <v>391686.4825005584</v>
+        <v>438184.650710005</v>
       </c>
       <c r="AE3" t="n">
-        <v>535922.7253453125</v>
+        <v>599543.5704438814</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.302832165986066e-06</v>
+        <v>4.42766250111505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.891276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>484775.0126106242</v>
+        <v>542323.9735454028</v>
       </c>
     </row>
     <row r="4">
@@ -7547,28 +7547,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>328.1230153863169</v>
+        <v>362.97539583831</v>
       </c>
       <c r="AB4" t="n">
-        <v>448.9523854173503</v>
+        <v>496.6389499302759</v>
       </c>
       <c r="AC4" t="n">
-        <v>406.104999861748</v>
+        <v>449.2404255860737</v>
       </c>
       <c r="AD4" t="n">
-        <v>328123.0153863169</v>
+        <v>362975.39583831</v>
       </c>
       <c r="AE4" t="n">
-        <v>448952.3854173503</v>
+        <v>496638.949930276</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.557023183715157e-06</v>
+        <v>4.916396354125759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.2060546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>406104.999861748</v>
+        <v>449240.4255860737</v>
       </c>
     </row>
     <row r="5">
@@ -7653,28 +7653,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.3681927272164</v>
+        <v>331.7810200820915</v>
       </c>
       <c r="AB5" t="n">
-        <v>390.4533508455153</v>
+        <v>453.9574288218867</v>
       </c>
       <c r="AC5" t="n">
-        <v>353.1890310455382</v>
+        <v>410.632368948378</v>
       </c>
       <c r="AD5" t="n">
-        <v>285368.1927272163</v>
+        <v>331781.0200820914</v>
       </c>
       <c r="AE5" t="n">
-        <v>390453.3508455153</v>
+        <v>453957.4288218867</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.669151941056336e-06</v>
+        <v>5.131986661361016e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.945638020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>353189.0310455383</v>
+        <v>410632.368948378</v>
       </c>
     </row>
     <row r="6">
@@ -7759,28 +7759,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>283.317684530424</v>
+        <v>318.2553163284377</v>
       </c>
       <c r="AB6" t="n">
-        <v>387.6477550686269</v>
+        <v>435.4509642342019</v>
       </c>
       <c r="AC6" t="n">
-        <v>350.6511973919176</v>
+        <v>393.8921353669556</v>
       </c>
       <c r="AD6" t="n">
-        <v>283317.684530424</v>
+        <v>318255.3163284377</v>
       </c>
       <c r="AE6" t="n">
-        <v>387647.7550686268</v>
+        <v>435450.9642342019</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.676659692634833e-06</v>
+        <v>5.14642183845416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.929361979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>350651.1973919176</v>
+        <v>393892.1353669557</v>
       </c>
     </row>
   </sheetData>
@@ -8056,28 +8056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>997.7312951151823</v>
+        <v>1070.117835550808</v>
       </c>
       <c r="AB2" t="n">
-        <v>1365.139974774783</v>
+        <v>1464.182432867586</v>
       </c>
       <c r="AC2" t="n">
-        <v>1234.852931568266</v>
+        <v>1324.442916467654</v>
       </c>
       <c r="AD2" t="n">
-        <v>997731.2951151823</v>
+        <v>1070117.835550807</v>
       </c>
       <c r="AE2" t="n">
-        <v>1365139.974774783</v>
+        <v>1464182.432867586</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.341289996419043e-06</v>
+        <v>2.498721531278586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.4208984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1234852.931568266</v>
+        <v>1324442.916467654</v>
       </c>
     </row>
     <row r="3">
@@ -8162,28 +8162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>499.7591425362666</v>
+        <v>547.9599720931526</v>
       </c>
       <c r="AB3" t="n">
-        <v>683.7925066354327</v>
+        <v>749.7430081056854</v>
       </c>
       <c r="AC3" t="n">
-        <v>618.5323095109569</v>
+        <v>678.1885876829988</v>
       </c>
       <c r="AD3" t="n">
-        <v>499759.1425362666</v>
+        <v>547959.9720931526</v>
       </c>
       <c r="AE3" t="n">
-        <v>683792.5066354327</v>
+        <v>749743.0081056854</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.051838654359247e-06</v>
+        <v>3.822419788446234e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.4658203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>618532.3095109569</v>
+        <v>678188.5876829987</v>
       </c>
     </row>
     <row r="4">
@@ -8268,28 +8268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>403.869511545086</v>
+        <v>440.2334187177663</v>
       </c>
       <c r="AB4" t="n">
-        <v>552.5920831613435</v>
+        <v>602.3467852173658</v>
       </c>
       <c r="AC4" t="n">
-        <v>499.8534703122838</v>
+        <v>544.8596534352423</v>
       </c>
       <c r="AD4" t="n">
-        <v>403869.511545086</v>
+        <v>440233.4187177663</v>
       </c>
       <c r="AE4" t="n">
-        <v>552592.0831613435</v>
+        <v>602346.7852173658</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.321941256781549e-06</v>
+        <v>4.325600450442413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.5966796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>499853.4703122838</v>
+        <v>544859.6534352424</v>
       </c>
     </row>
     <row r="5">
@@ -8374,28 +8374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.0229320159515</v>
+        <v>397.2162469880396</v>
       </c>
       <c r="AB5" t="n">
-        <v>493.9675027919004</v>
+        <v>543.4887930730758</v>
       </c>
       <c r="AC5" t="n">
-        <v>446.8239376131851</v>
+        <v>491.6189854534926</v>
       </c>
       <c r="AD5" t="n">
-        <v>361022.9320159515</v>
+        <v>397216.2469880396</v>
       </c>
       <c r="AE5" t="n">
-        <v>493967.5027919004</v>
+        <v>543488.7930730758</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.476285601022865e-06</v>
+        <v>4.613132257297372e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.1865234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>446823.9376131851</v>
+        <v>491618.9854534926</v>
       </c>
     </row>
     <row r="6">
@@ -8480,28 +8480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>325.0650127888489</v>
+        <v>373.2657528371839</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.7682913539415</v>
+        <v>510.7186703546458</v>
       </c>
       <c r="AC6" t="n">
-        <v>402.3202298633382</v>
+        <v>461.9763972541534</v>
       </c>
       <c r="AD6" t="n">
-        <v>325065.012788849</v>
+        <v>373265.7528371839</v>
       </c>
       <c r="AE6" t="n">
-        <v>444768.2913539415</v>
+        <v>510718.6703546458</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.553928335168648e-06</v>
+        <v>4.757774782087215e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.997721354166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>402320.2298633382</v>
+        <v>461976.3972541534</v>
       </c>
     </row>
     <row r="7">
@@ -8586,28 +8586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>306.9712062903118</v>
+        <v>343.2497726084205</v>
       </c>
       <c r="AB7" t="n">
-        <v>420.0115470602375</v>
+        <v>469.6494819940622</v>
       </c>
       <c r="AC7" t="n">
-        <v>379.9262344987163</v>
+        <v>424.826794589736</v>
       </c>
       <c r="AD7" t="n">
-        <v>306971.2062903118</v>
+        <v>343249.7726084205</v>
       </c>
       <c r="AE7" t="n">
-        <v>420011.5470602375</v>
+        <v>469649.4819940622</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.606537169577731e-06</v>
+        <v>4.855781050399362e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.877278645833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>379926.2344987163</v>
+        <v>424826.794589736</v>
       </c>
     </row>
     <row r="8">
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>307.7410214313384</v>
+        <v>344.0195877494471</v>
       </c>
       <c r="AB8" t="n">
-        <v>421.0648420980372</v>
+        <v>470.702777031862</v>
       </c>
       <c r="AC8" t="n">
-        <v>380.8790045364173</v>
+        <v>425.779564627437</v>
       </c>
       <c r="AD8" t="n">
-        <v>307741.0214313384</v>
+        <v>344019.5877494471</v>
       </c>
       <c r="AE8" t="n">
-        <v>421064.8420980372</v>
+        <v>470702.7770318619</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.606443057172706e-06</v>
+        <v>4.855605726126889e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.877278645833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>380879.0045364173</v>
+        <v>425779.564627437</v>
       </c>
     </row>
   </sheetData>
@@ -8989,28 +8989,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>476.2523049873373</v>
+        <v>520.6489875977529</v>
       </c>
       <c r="AB2" t="n">
-        <v>651.6294144525062</v>
+        <v>712.3749142434793</v>
       </c>
       <c r="AC2" t="n">
-        <v>589.4388177047854</v>
+        <v>644.3868522525527</v>
       </c>
       <c r="AD2" t="n">
-        <v>476252.3049873373</v>
+        <v>520648.9875977529</v>
       </c>
       <c r="AE2" t="n">
-        <v>651629.4144525062</v>
+        <v>712374.9142434794</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.019199564730262e-06</v>
+        <v>4.047480186646996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.206380208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>589438.8177047854</v>
+        <v>644386.8522525526</v>
       </c>
     </row>
     <row r="3">
@@ -9095,28 +9095,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.0266552563815</v>
+        <v>334.302854377688</v>
       </c>
       <c r="AB3" t="n">
-        <v>411.8779500805314</v>
+        <v>457.407913760599</v>
       </c>
       <c r="AC3" t="n">
-        <v>372.5688965991783</v>
+        <v>413.7535444473256</v>
       </c>
       <c r="AD3" t="n">
-        <v>301026.6552563815</v>
+        <v>334302.854377688</v>
       </c>
       <c r="AE3" t="n">
-        <v>411877.9500805314</v>
+        <v>457407.913760599</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.608200647927345e-06</v>
+        <v>5.228131299986693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>372568.8965991783</v>
+        <v>413753.5444473256</v>
       </c>
     </row>
     <row r="4">
@@ -9201,28 +9201,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>255.6775423697605</v>
+        <v>299.9887946170566</v>
       </c>
       <c r="AB4" t="n">
-        <v>349.8292931672303</v>
+        <v>410.4579033666273</v>
       </c>
       <c r="AC4" t="n">
-        <v>316.442076415951</v>
+        <v>371.2843771506011</v>
       </c>
       <c r="AD4" t="n">
-        <v>255677.5423697605</v>
+        <v>299988.7946170566</v>
       </c>
       <c r="AE4" t="n">
-        <v>349829.2931672303</v>
+        <v>410457.9033666273</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.768763259543905e-06</v>
+        <v>5.549978630278257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.984700520833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>316442.076415951</v>
+        <v>371284.3771506011</v>
       </c>
     </row>
   </sheetData>
@@ -9498,28 +9498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.5718281648633</v>
+        <v>383.9822319917593</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.3536443807029</v>
+        <v>525.3814299116293</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.7500684959675</v>
+        <v>475.2397636183306</v>
       </c>
       <c r="AD2" t="n">
-        <v>341571.8281648633</v>
+        <v>383982.2319917593</v>
       </c>
       <c r="AE2" t="n">
-        <v>467353.6443807029</v>
+        <v>525381.4299116293</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.376965512592533e-06</v>
+        <v>4.972760502815366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.262369791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>422750.0684959675</v>
+        <v>475239.7636183306</v>
       </c>
     </row>
     <row r="3">
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.9380887421607</v>
+        <v>281.7885844167593</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.9763195071286</v>
+        <v>385.5555728339748</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.338579540249</v>
+        <v>348.7586900933447</v>
       </c>
       <c r="AD3" t="n">
-        <v>249938.0887421606</v>
+        <v>281788.5844167593</v>
       </c>
       <c r="AE3" t="n">
-        <v>341976.3195071286</v>
+        <v>385555.5728339748</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793454160100604e-06</v>
+        <v>5.844080799734693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.180013020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>309338.579540249</v>
+        <v>348758.6900933447</v>
       </c>
     </row>
   </sheetData>
@@ -16850,28 +16850,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.1793633919658</v>
+        <v>295.1555633489733</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.7794185948209</v>
+        <v>403.8448631185209</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.5878389957146</v>
+        <v>365.3024761823137</v>
       </c>
       <c r="AD2" t="n">
-        <v>254179.3633919658</v>
+        <v>295155.5633489733</v>
       </c>
       <c r="AE2" t="n">
-        <v>347779.4185948209</v>
+        <v>403844.8631185209</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.686732842175507e-06</v>
+        <v>5.840569691027048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.6455078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>314587.8389957146</v>
+        <v>365302.4761823138</v>
       </c>
     </row>
     <row r="3">
@@ -16956,28 +16956,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.9793452703944</v>
+        <v>268.6902495330587</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.613839106539</v>
+        <v>367.6338531883438</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.5377113042011</v>
+        <v>332.5473942174011</v>
       </c>
       <c r="AD3" t="n">
-        <v>237979.3452703944</v>
+        <v>268690.2495330587</v>
       </c>
       <c r="AE3" t="n">
-        <v>325613.839106539</v>
+        <v>367633.8531883438</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793043599007883e-06</v>
+        <v>6.071673943164955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.393229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>294537.7113042011</v>
+        <v>332547.394217401</v>
       </c>
     </row>
   </sheetData>
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.3355863732458</v>
+        <v>266.2145035368187</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.4188227308513</v>
+        <v>364.2464282940833</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.6020087720831</v>
+        <v>329.4832604007681</v>
       </c>
       <c r="AD2" t="n">
-        <v>228335.5863732458</v>
+        <v>266214.5035368187</v>
       </c>
       <c r="AE2" t="n">
-        <v>312418.8227308514</v>
+        <v>364246.4282940833</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.630865548229135e-06</v>
+        <v>6.257584643866892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.28515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>282602.0087720831</v>
+        <v>329483.2604007681</v>
       </c>
     </row>
   </sheetData>
@@ -17550,28 +17550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>634.1047782851523</v>
+        <v>691.5504675903277</v>
       </c>
       <c r="AB2" t="n">
-        <v>867.6101323782068</v>
+        <v>946.2098588104965</v>
       </c>
       <c r="AC2" t="n">
-        <v>784.8066390424987</v>
+        <v>855.9049178994995</v>
       </c>
       <c r="AD2" t="n">
-        <v>634104.7782851523</v>
+        <v>691550.4675903277</v>
       </c>
       <c r="AE2" t="n">
-        <v>867610.1323782068</v>
+        <v>946209.8588104965</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.732400880648582e-06</v>
+        <v>3.361859373965287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.251302083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>784806.6390424987</v>
+        <v>855904.9178994995</v>
       </c>
     </row>
     <row r="3">
@@ -17656,28 +17656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.3548866801773</v>
+        <v>414.36257103022</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.9994066265051</v>
+        <v>566.9491500700168</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.8984106256805</v>
+        <v>512.8403189054633</v>
       </c>
       <c r="AD3" t="n">
-        <v>368354.8866801773</v>
+        <v>414362.57103022</v>
       </c>
       <c r="AE3" t="n">
-        <v>503999.4066265051</v>
+        <v>566949.1500700169</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.375059370138842e-06</v>
+        <v>4.608988425494247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.748046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>455898.4106256805</v>
+        <v>512840.3189054633</v>
       </c>
     </row>
     <row r="4">
@@ -17762,28 +17762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.7864556190092</v>
+        <v>340.2709731764494</v>
       </c>
       <c r="AB4" t="n">
-        <v>418.3905189242506</v>
+        <v>465.5737571958833</v>
       </c>
       <c r="AC4" t="n">
-        <v>378.4599150129006</v>
+        <v>421.1400512459796</v>
       </c>
       <c r="AD4" t="n">
-        <v>305786.4556190092</v>
+        <v>340270.9731764494</v>
       </c>
       <c r="AE4" t="n">
-        <v>418390.5189242506</v>
+        <v>465573.7571958833</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.638385879623511e-06</v>
+        <v>5.119994107962595e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.07421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>378459.9150129007</v>
+        <v>421140.0512459796</v>
       </c>
     </row>
     <row r="5">
@@ -17868,28 +17868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.3033184956366</v>
+        <v>322.2256619911077</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.0503900078413</v>
+        <v>440.8833663291553</v>
       </c>
       <c r="AC5" t="n">
-        <v>341.9697913825469</v>
+        <v>398.806076630391</v>
       </c>
       <c r="AD5" t="n">
-        <v>276303.3184956366</v>
+        <v>322225.6619911077</v>
       </c>
       <c r="AE5" t="n">
-        <v>378050.3900078413</v>
+        <v>440883.3663291553</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.697865764338822e-06</v>
+        <v>5.235419475281548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.940755208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>341969.7913825469</v>
+        <v>398806.076630391</v>
       </c>
     </row>
   </sheetData>
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>903.5932324371813</v>
+        <v>975.4288758073565</v>
       </c>
       <c r="AB2" t="n">
-        <v>1236.336124340527</v>
+        <v>1334.624820764517</v>
       </c>
       <c r="AC2" t="n">
-        <v>1118.341939842115</v>
+        <v>1207.250101028452</v>
       </c>
       <c r="AD2" t="n">
-        <v>903593.2324371813</v>
+        <v>975428.8758073564</v>
       </c>
       <c r="AE2" t="n">
-        <v>1236336.124340527</v>
+        <v>1334624.820764517</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.413843803390225e-06</v>
+        <v>2.652925526046608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1118341.939842115</v>
+        <v>1207250.101028452</v>
       </c>
     </row>
     <row r="3">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.4663281334608</v>
+        <v>522.2430587493666</v>
       </c>
       <c r="AB3" t="n">
-        <v>649.1857621292944</v>
+        <v>714.5559927185732</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.2283841296136</v>
+        <v>646.3597716591463</v>
       </c>
       <c r="AD3" t="n">
-        <v>474466.3281334608</v>
+        <v>522243.0587493666</v>
       </c>
       <c r="AE3" t="n">
-        <v>649185.7621292945</v>
+        <v>714555.9927185732</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.111703212084212e-06</v>
+        <v>3.962383497625019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.314453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>587228.3841296135</v>
+        <v>646359.7716591463</v>
       </c>
     </row>
     <row r="4">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>384.7671861240231</v>
+        <v>420.6424268903759</v>
       </c>
       <c r="AB4" t="n">
-        <v>526.4554387851248</v>
+        <v>575.5415259055696</v>
       </c>
       <c r="AC4" t="n">
-        <v>476.2112705923207</v>
+        <v>520.6126504507463</v>
       </c>
       <c r="AD4" t="n">
-        <v>384767.1861240231</v>
+        <v>420642.4268903759</v>
       </c>
       <c r="AE4" t="n">
-        <v>526455.4387851248</v>
+        <v>575541.5259055697</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.377030232305642e-06</v>
+        <v>4.46024105657705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.497395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>476211.2705923207</v>
+        <v>520612.6504507463</v>
       </c>
     </row>
     <row r="5">
@@ -18483,28 +18483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>362.9227337983015</v>
+        <v>398.7979745646544</v>
       </c>
       <c r="AB5" t="n">
-        <v>496.5668954038512</v>
+        <v>545.6529825242961</v>
       </c>
       <c r="AC5" t="n">
-        <v>449.1752478425218</v>
+        <v>493.5766277009474</v>
       </c>
       <c r="AD5" t="n">
-        <v>362922.7337983015</v>
+        <v>398797.9745646544</v>
       </c>
       <c r="AE5" t="n">
-        <v>496566.8954038512</v>
+        <v>545652.9825242962</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.452282137540117e-06</v>
+        <v>4.601443146794847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.298828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>449175.2478425218</v>
+        <v>493576.6277009473</v>
       </c>
     </row>
     <row r="6">
@@ -18589,28 +18589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.4443450661562</v>
+        <v>344.4048371785296</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.0271605236439</v>
+        <v>471.229892296738</v>
       </c>
       <c r="AC6" t="n">
-        <v>381.7494806421064</v>
+        <v>426.2563727512443</v>
       </c>
       <c r="AD6" t="n">
-        <v>308444.3450661562</v>
+        <v>344404.8371785296</v>
       </c>
       <c r="AE6" t="n">
-        <v>422027.1605236439</v>
+        <v>471229.892296738</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.602026786291696e-06</v>
+        <v>4.882422842083226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.935872395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>381749.4806421064</v>
+        <v>426256.3727512443</v>
       </c>
     </row>
     <row r="7">
@@ -18695,28 +18695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>301.0374417341103</v>
+        <v>336.9979338464837</v>
       </c>
       <c r="AB7" t="n">
-        <v>411.8927086152257</v>
+        <v>461.09544038832</v>
       </c>
       <c r="AC7" t="n">
-        <v>372.5822466000351</v>
+        <v>417.0891387091731</v>
       </c>
       <c r="AD7" t="n">
-        <v>301037.4417341103</v>
+        <v>336997.9338464837</v>
       </c>
       <c r="AE7" t="n">
-        <v>411892.7086152257</v>
+        <v>461095.44038832</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.624516952168834e-06</v>
+        <v>4.924623214569503e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>372582.2466000351</v>
+        <v>417089.1387091731</v>
       </c>
     </row>
   </sheetData>
@@ -18992,28 +18992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.7480594102265</v>
+        <v>270.3035799171423</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.8244071215027</v>
+        <v>369.8412829949603</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.300814582296</v>
+        <v>334.5441500214213</v>
       </c>
       <c r="AD2" t="n">
-        <v>233748.0594102265</v>
+        <v>270303.5799171423</v>
       </c>
       <c r="AE2" t="n">
-        <v>319824.4071215027</v>
+        <v>369841.2829949603</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.395896722680034e-06</v>
+        <v>5.991955879942562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.282877604166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>289300.814582296</v>
+        <v>334544.1500214213</v>
       </c>
     </row>
   </sheetData>
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.031114912823</v>
+        <v>423.2869028101948</v>
       </c>
       <c r="AB2" t="n">
-        <v>519.9753372132453</v>
+        <v>579.1598145251095</v>
       </c>
       <c r="AC2" t="n">
-        <v>470.3496208195818</v>
+        <v>523.8856146827372</v>
       </c>
       <c r="AD2" t="n">
-        <v>380031.114912823</v>
+        <v>423286.9028101948</v>
       </c>
       <c r="AE2" t="n">
-        <v>519975.3372132453</v>
+        <v>579159.8145251095</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.250871424485535e-06</v>
+        <v>4.635182290796186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.556966145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>470349.6208195818</v>
+        <v>523885.6146827373</v>
       </c>
     </row>
     <row r="3">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.9084060046918</v>
+        <v>290.2649955817031</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.8816592112993</v>
+        <v>397.1533725427192</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.2031289287975</v>
+        <v>359.2496120755006</v>
       </c>
       <c r="AD3" t="n">
-        <v>257908.4060046918</v>
+        <v>290264.9955817031</v>
       </c>
       <c r="AE3" t="n">
-        <v>352881.6592112993</v>
+        <v>397153.3725427192</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774162190256027e-06</v>
+        <v>5.71278630853387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.131184895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>319203.1289287976</v>
+        <v>359249.6120755007</v>
       </c>
     </row>
     <row r="4">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.5908837637922</v>
+        <v>289.9474733408036</v>
       </c>
       <c r="AB4" t="n">
-        <v>352.447211273208</v>
+        <v>396.7189246046279</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.8101440921662</v>
+        <v>358.8566272388691</v>
       </c>
       <c r="AD4" t="n">
-        <v>257590.8837637922</v>
+        <v>289947.4733408036</v>
       </c>
       <c r="AE4" t="n">
-        <v>352447.211273208</v>
+        <v>396718.9246046279</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.780537412287583e-06</v>
+        <v>5.72591469780529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.1181640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>318810.1440921662</v>
+        <v>358856.6272388691</v>
       </c>
     </row>
   </sheetData>
@@ -19798,28 +19798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.4514746805351</v>
+        <v>566.5820448502009</v>
       </c>
       <c r="AB2" t="n">
-        <v>713.4729124733733</v>
+        <v>775.2225495997468</v>
       </c>
       <c r="AC2" t="n">
-        <v>645.3800590724359</v>
+        <v>701.2363974976282</v>
       </c>
       <c r="AD2" t="n">
-        <v>521451.474680535</v>
+        <v>566582.0448502009</v>
       </c>
       <c r="AE2" t="n">
-        <v>713472.9124733733</v>
+        <v>775222.5495997468</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.918367907310308e-06</v>
+        <v>3.800640018517253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.536783854166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>645380.0590724358</v>
+        <v>701236.3974976282</v>
       </c>
     </row>
     <row r="3">
@@ -19904,28 +19904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.7234172395101</v>
+        <v>357.4220878798101</v>
       </c>
       <c r="AB3" t="n">
-        <v>442.9326611363178</v>
+        <v>489.0406689868003</v>
       </c>
       <c r="AC3" t="n">
-        <v>400.659789617361</v>
+        <v>442.3673139115891</v>
       </c>
       <c r="AD3" t="n">
-        <v>323723.4172395101</v>
+        <v>357422.0878798101</v>
       </c>
       <c r="AE3" t="n">
-        <v>442932.6611363178</v>
+        <v>489040.6689868003</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.524920319860349e-06</v>
+        <v>5.002332021224937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.486002604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>400659.789617361</v>
+        <v>442367.3139115891</v>
       </c>
     </row>
     <row r="4">
@@ -20010,28 +20010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.7403922326671</v>
+        <v>313.4390628729672</v>
       </c>
       <c r="AB4" t="n">
-        <v>382.753145927838</v>
+        <v>428.8611537783206</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.2237228778986</v>
+        <v>387.9312471721266</v>
       </c>
       <c r="AD4" t="n">
-        <v>279740.3922326671</v>
+        <v>313439.0628729672</v>
       </c>
       <c r="AE4" t="n">
-        <v>382753.145927838</v>
+        <v>428861.1537783206</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.711071939504937e-06</v>
+        <v>5.371132652447435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>346223.7228778986</v>
+        <v>387931.2471721266</v>
       </c>
     </row>
     <row r="5">
@@ -20116,28 +20116,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>264.9732386739447</v>
+        <v>309.8477862798957</v>
       </c>
       <c r="AB5" t="n">
-        <v>362.5480749479583</v>
+        <v>423.9474107077388</v>
       </c>
       <c r="AC5" t="n">
-        <v>327.9469955143434</v>
+        <v>383.4864648437193</v>
       </c>
       <c r="AD5" t="n">
-        <v>264973.2386739447</v>
+        <v>309847.7862798957</v>
       </c>
       <c r="AE5" t="n">
-        <v>362548.0749479583</v>
+        <v>423947.4107077388</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.734617603827549e-06</v>
+        <v>5.417780948504766e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>327946.9955143434</v>
+        <v>383486.4648437193</v>
       </c>
     </row>
   </sheetData>
